--- a/medicine/Bioéthique/Jean_Bernard_(médecin)/Jean_Bernard_(médecin).xlsx
+++ b/medicine/Bioéthique/Jean_Bernard_(médecin)/Jean_Bernard_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Bernard_(m%C3%A9decin)</t>
+          <t>Jean_Bernard_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Simon Jean Bernard, né le 26 mai 1907 à Paris et mort le 17 avril 2006 dans la même ville, est un médecin et professeur français, spécialiste d'hématologie et de cancérologie. Membre de l'Académie française, il fut le premier président du Comité consultatif national d'éthique, ainsi que président de l'Académie des sciences et de l'Académie nationale de médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Bernard_(m%C3%A9decin)</t>
+          <t>Jean_Bernard_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,70 +525,218 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse, études et engagement
-Jean Bernard naît dans une famille d'ingénieurs. Son grand-père maternel, Émile Paraf, était polytechnicien ; son père, Paul Bernard (1876-1951) était centralien, ainsi que Michel, son frère cadet. Il a un autre frère Henri (1908-1981). Pendant la Première Guerre mondiale, et tandis que son père est au front, il est envoyé en Bretagne, à Couëron, près de Nantes. Jusqu’en 1918, il étudie à l’école communale de Couëron en Loire-Atlantique, puis, après que sa famille s'installe boulevard Saint-Aignan à Nantes, au lycée Clemenceau. Sa mère, née Andrée-Marguerite Paraf, meurt en 1920. Puis Jean Bernard fréquente le lycée Louis-le-Grand à Paris, où il acquiert une solide culture classique. Il lit beaucoup et commence à écrire. À 17 ans, il joue une pièce de Victor Hugo, Mangeront-ils ?. Ses partenaires sont Claude Lévi-Strauss et Pierre Dreyfus. À cette époque, il hésite encore entre la médecine et la littérature. Il finit par se décider pour la médecine : « La médecine me parut allier l’humanisme et mon goût pour les sciences. »[1]
+          <t>Jeunesse, études et engagement</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Bernard naît dans une famille d'ingénieurs. Son grand-père maternel, Émile Paraf, était polytechnicien ; son père, Paul Bernard (1876-1951) était centralien, ainsi que Michel, son frère cadet. Il a un autre frère Henri (1908-1981). Pendant la Première Guerre mondiale, et tandis que son père est au front, il est envoyé en Bretagne, à Couëron, près de Nantes. Jusqu’en 1918, il étudie à l’école communale de Couëron en Loire-Atlantique, puis, après que sa famille s'installe boulevard Saint-Aignan à Nantes, au lycée Clemenceau. Sa mère, née Andrée-Marguerite Paraf, meurt en 1920. Puis Jean Bernard fréquente le lycée Louis-le-Grand à Paris, où il acquiert une solide culture classique. Il lit beaucoup et commence à écrire. À 17 ans, il joue une pièce de Victor Hugo, Mangeront-ils ?. Ses partenaires sont Claude Lévi-Strauss et Pierre Dreyfus. À cette époque, il hésite encore entre la médecine et la littérature. Il finit par se décider pour la médecine : « La médecine me parut allier l’humanisme et mon goût pour les sciences. »
 Il suit des cours à la Faculté des sciences de Paris, à la Faculté de médecine et enfin à l’Institut Pasteur.
-En 1929, il devient interne des hôpitaux. Il entre dans le service du Pr Paul Chevallier[2], qui est un maître en hématologie. Jean Bernard éprouve une grande admiration pour ce médecin et c’est grâce à lui qu’il va faire des maladies du sang l’affaire de sa vie. En 1931, il fonde, avec Paul Chevallier, la première société savante d’hématologie. À partir de 1933, il commence une thèse expérimentale sur la leucémie. Il obtient son doctorat en médecine en 1936.
-En 1931, il épouse Amy Pichon (1905-1992), fille de Charles-Adolphe Pichon (1876-1959), secrétaire général civil de la présidence de la République et délégué général de l'UIMM, et de Marguerite Pichon-Landry, présidente du CNFF. Amy Pichon était également la nièce du ministre Adolphe Landry[3],[4].
+En 1929, il devient interne des hôpitaux. Il entre dans le service du Pr Paul Chevallier, qui est un maître en hématologie. Jean Bernard éprouve une grande admiration pour ce médecin et c’est grâce à lui qu’il va faire des maladies du sang l’affaire de sa vie. En 1931, il fonde, avec Paul Chevallier, la première société savante d’hématologie. À partir de 1933, il commence une thèse expérimentale sur la leucémie. Il obtient son doctorat en médecine en 1936.
+En 1931, il épouse Amy Pichon (1905-1992), fille de Charles-Adolphe Pichon (1876-1959), secrétaire général civil de la présidence de la République et délégué général de l'UIMM, et de Marguerite Pichon-Landry, présidente du CNFF. Amy Pichon était également la nièce du ministre Adolphe Landry,.
 Dès 1940, Jean Bernard entre dans la Résistance, ce qui lui vaudra d’être l’un des cinq cents titulaires de la carte de Résistant de 1940. En 1942, il dirige un réseau de résistance dans le sud-est de la France. Il est responsable des parachutages d’armes sur les plateaux du Vivarais, dans le Vaucluse et dans les Bouches-du-Rhône. En 1943, il est fait prisonnier et est incarcéré six mois à la prison allemande de Fresnes. Relâché peu avant la Libération, il reprend le combat. Il ne déposera les armes qu’une fois la capitulation allemande du 8 mai 1945 proclamée.
 Après la guerre, Jean Bernard reprend ses études de médecine. Il suit les cours d’immunologie et de bactériologie de Gaston Ramon et Robert Debré. En 1946, il devient médecin des hôpitaux, puis, en 1949, il réussit l'agrégation et enseigne à la faculté de médecine de Paris.
-Les succès médicaux et la réflexion éthique
-En 1947, avec Jean Hamburger, Jean Bernard crée l’« Association pour la recherche médicale ». En 1962, cette association deviendra la Fondation pour la recherche médicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean_Bernard_(médecin)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Bernard_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les succès médicaux et la réflexion éthique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1947, avec Jean Hamburger, Jean Bernard crée l’« Association pour la recherche médicale ». En 1962, cette association deviendra la Fondation pour la recherche médicale.
 En 1947, à l'hôpital Hérold, il obtient avec Marcel Bessis la première rémission dans un cas de leucémie chez un enfant, Michel. Jean Bernard a eu l'idée de modifier le milieu intérieur (concept dû à Claude Bernard) et c'est Marcel Bessis qui a apporté la technique de l'exsanguino-transfusion, consistant dans le remplacement total du sang d'un organisme. Ce premier succès fait l'objet d'une publication dans la Revue de transfusion. En 1950, il décrit la première leucémie chimiquement induite chez l'homme : l'hémopathie benzénique observée chez les sujets travaillant dans les industries qui utilisent le benzène. Cette étude permettra à Jean Bernard d’aborder le traitement curatif de la leucémie.
-En 1948, avec son confrère Jean-Pierre Soulier, il décrivent le syndrome Bernard-Soulier qui porte leurs noms[5]. Les deux hématologues ont décrit le cas d'un jeune homme avec une tendance à saigner, une thrombocytopénie et des thrombocytes extrêmement hypertrophiés (« thrombocytes géants »). Le patient s'est présenté à l'âge de 15 ans avec des saignements de nez importants et du sang dans les selles, puis a subi des saignements répétés au cours des années suivantes et est décédé à l'âge de 28 ans d'une hémorragie cérébrale. Sa sœur est morte en bas âge à l'âge de 31 mois. Les parents et les autres frères et sœurs n'ont pas été touchés.
+En 1948, avec son confrère Jean-Pierre Soulier, il décrivent le syndrome Bernard-Soulier qui porte leurs noms. Les deux hématologues ont décrit le cas d'un jeune homme avec une tendance à saigner, une thrombocytopénie et des thrombocytes extrêmement hypertrophiés (« thrombocytes géants »). Le patient s'est présenté à l'âge de 15 ans avec des saignements de nez importants et du sang dans les selles, puis a subi des saignements répétés au cours des années suivantes et est décédé à l'âge de 28 ans d'une hémorragie cérébrale. Sa sœur est morte en bas âge à l'âge de 31 mois. Les parents et les autres frères et sœurs n'ont pas été touchés.
 En 1956, il est professeur de cancérologie.
-En 1957, il est médecin chef de service à l’hôpital Saint-Louis. Léon Binet témoigne de la manière dont Jean Bernard menait ses consultations : « Les malades étaient fascinés par sa façon d’être. Il avait un esprit de synthèse tellement fulgurant qu’il arrivait très vite à formuler des solutions pratiques, dans une discipline pourtant complexe. Très présent dans son service, partisan du temps plein à l’hôpital, il recevait les familles de ses petits malades dès huit heures le matin et savait les rassurer. »[6]
+En 1957, il est médecin chef de service à l’hôpital Saint-Louis. Léon Binet témoigne de la manière dont Jean Bernard menait ses consultations : « Les malades étaient fascinés par sa façon d’être. Il avait un esprit de synthèse tellement fulgurant qu’il arrivait très vite à formuler des solutions pratiques, dans une discipline pourtant complexe. Très présent dans son service, partisan du temps plein à l’hôpital, il recevait les familles de ses petits malades dès huit heures le matin et savait les rassurer. »
 En 1958, il devient membre du Comité consultatif de la recherche scientifique. Il fait partie du Comité des douze sages qui conseille le Général de Gaulle sur l’orientation de la recherche en France. En 1961, il devient professeur de clinique des maladies du sang et il prend la direction de l'Institut de recherche sur les leucémies et les maladies du sang installé à l'hôpital Saint-Louis. En 1962, il isole une substance, la rubidomycine, dont il réussit à démontrer l’efficacité contre la leucémie. Il décrira aussi en 1967 le syndrome de Lasthénie de Ferjol.
 Il est président du conseil d'administration de l'Institut national de la santé et de la recherche médicale (Inserm) de 1967 à 1980.
 Grâce à ces recherches, l’hématologie, qui était jadis une discipline unifiée, tend à se diviser en domaines plus spécialisés. C’est Jean Bernard qui oriente Marcel Bessis vers la cytologie. Jean Dausset est, lui, orienté vers l’immunologie ; il découvrira ainsi le système majeur d'histocompatibilité (ou compatibilité tissulaire) dit HLA ; pour ses découvertes, Jean Dausset recevra le prix Nobel de médecine en 1980.
 En 1983, il devient le premier président du Comité consultatif national d’éthique des sciences de la vie et de la santé.
-Membre du conseil d'administration de l'Institut Pasteur de 1967 à 1970, il est président de l'Académie des sciences de 1983 à 1984 et de l'Académie nationale de médecine de 1983 à 1992. Il fut par ailleurs membre de l'Académie du royaume du Maroc[7].
-L'Académie française
-Jean Bernard fut aussi un écrivain et un poète. Il fut, notamment, l’ami de Paul Valéry et de Jules Romains. Il est élu à l’Académie française, le 15 mai 1975, à la suite du décès de Marcel Pagnol (25e fauteuil de l'Académie française). Il reçoit Jean Hamburger en 1986, puis Michel Debré en 1989. Dominique Fernandez lui succède et prononce son éloge sous la Coupole en 2008.
+Membre du conseil d'administration de l'Institut Pasteur de 1967 à 1970, il est président de l'Académie des sciences de 1983 à 1984 et de l'Académie nationale de médecine de 1983 à 1992. Il fut par ailleurs membre de l'Académie du royaume du Maroc.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jean_Bernard_(m%C3%A9decin)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_Bernard_(médecin)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Bioéthique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean_Bernard_(m%C3%A9decin)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'Académie française</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Bernard fut aussi un écrivain et un poète. Il fut, notamment, l’ami de Paul Valéry et de Jules Romains. Il est élu à l’Académie française, le 15 mai 1975, à la suite du décès de Marcel Pagnol (25e fauteuil de l'Académie française). Il reçoit Jean Hamburger en 1986, puis Michel Debré en 1989. Dominique Fernandez lui succède et prononce son éloge sous la Coupole en 2008.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Bernard_(médecin)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Bernard_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Décorations
- Grand-croix de la Légion d'honneur en 1984
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand-croix de la Légion d'honneur en 1984
  Grand-croix de l'ordre national du Mérite
  Croix de guerre 1939-1945
  Médaille de la Résistance française avec rosette
- Chevalier de l'ordre des Arts et des Lettres
-Prix et récompenses
-Grand prix de l’Académie des sciences (1971)
+ Chevalier de l'ordre des Arts et des Lettres</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Bernard_(médecin)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Bernard_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix et récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Grand prix de l’Académie des sciences (1971)
 Prix Katsunuma (Tokyo, 1960)
 Prix de l’Institut de la vie (Paris, 1973)
 Prix Jimenez-Diaz (Madrid, 1977)
-Prix Baillet-Latour (Bruxelles, 1984).
-Honneurs
-Élu à l’Académie des sciences en 1972, au fauteuil de Léon Binet. (président de 1983 à 1984).
+Prix Baillet-Latour (Bruxelles, 1984).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean_Bernard_(médecin)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Bernard_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Élu à l’Académie des sciences en 1972, au fauteuil de Léon Binet. (président de 1983 à 1984).
 Membre de l’Académie nationale de médecine, en 1973
 Élu à l’Académie française, le 15 mai 1975, au fauteuil de Marcel Pagnol (25e fauteuil de l'Académie française).
 Docteur honoris causa des universités d'Innsbruck, Liège, Lisbonne, Louvain, Mendoza, Montevideo, Salonique, Santiago, Sherbrooke, Sofia, Rio de Janeiro.
@@ -585,31 +745,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jean_Bernard_(m%C3%A9decin)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean_Bernard_(médecin)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Bioéthique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean_Bernard_(m%C3%A9decin)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1932 : La Maladie de Hodgkin (avec Paul Chevallier)
 1936 : Polyglobulies et leucémies expérimentales provoquées par les injections intra-médullaires de goudron
@@ -628,7 +790,7 @@
 1978 : L’Espérance ou le nouvel état de la médecine, Buchet-Chastel,  (ISBN 2702014011)
 1980 : Mon beau navire, Buchet-Chastel, réédition 1994  (ISBN 2702014046)
 1981 : Le Sang des hommes, Buchet-Chastel, réédition 1994  (ISBN 2702014054)
-1983 : Le Sang et l’histoire, Buchet-Chastel, réédition 1994  (ISBN 2702014062), ouvrage à approche biologisante[8]
+1983 : Le Sang et l’histoire, Buchet-Chastel, réédition 1994  (ISBN 2702014062), ouvrage à approche biologisante
 1984 : L’Enfant, le sang et l’espoir, Buchet-Chastel, réédition 1994  (ISBN 2702014003)
 1987 : Et l’âme ? demande Brigitte, Buchet-Chastel, réédition 1996  (ISBN 270201402X)
 1988 : C’est de l’homme qu’il s’agit, éditions Odile Jacob  (ISBN 2738100457)
